--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +770,97 @@
         <v>520</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2022-06-18 12:16:25</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2022-06-25 9:38:18</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2022-06-25 9:38:34</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2022-06-25 9:38:46</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2022-06-25 9:39:4</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2022-06-28 22:7:58</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2022-06-28 22:11:4</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
